--- a/medicine/Enfance/Cassandra_O'Donnell/Cassandra_O'Donnell.xlsx
+++ b/medicine/Enfance/Cassandra_O'Donnell/Cassandra_O'Donnell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cassandra_O%27Donnell</t>
+          <t>Cassandra_O'Donnell</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cassandra O'Donnell, née à Lille, est une romancière française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cassandra_O%27Donnell</t>
+          <t>Cassandra_O'Donnell</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de Lille, Cassandra O'Donnell vit depuis plusieurs années dans la région de la Normandie[1],[2]. Elle est fan de Victor Hugo, Colette, Oscar Wilde, Tolkien, Ilona Andrews et de Laurell K. Hamilton[3]. Réalisatrice de documentaires et de reportages, elle décide de prendre son pseudonyme actuel pour créer la saga Rebecca Kean en 2011, publiée chez j'ai lu, dans la collection Darklight.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de Lille, Cassandra O'Donnell vit depuis plusieurs années dans la région de la Normandie,. Elle est fan de Victor Hugo, Colette, Oscar Wilde, Tolkien, Ilona Andrews et de Laurell K. Hamilton. Réalisatrice de documentaires et de reportages, elle décide de prendre son pseudonyme actuel pour créer la saga Rebecca Kean en 2011, publiée chez j'ai lu, dans la collection Darklight.
 En 2013, elle se lance dans la romance historique, dans la collection J'ai lu pour Elle, avec la saga Les Sœurs Charbrey.
 Durant le Salon du livre de Paris 2013, elle participe à la conférence 50 nuances de romance.
 En 2014, elle publie, chez Flammarion, le premier tome d'une saga fantasy pour la jeunesse pour les 8-10 ans intitulée Malenfer. En 2016, elle se lance dans la comédie policière, chez Pygmalion, avec  Les Aventures improbables de Julie Dumont.
-À la suite de la parution du sixième tome de la série Rebecca Kean, un spin-off centré sur le personnage de Léonora Kean, la fille de Rebecca Kean, a été publié aux éditions Pygmalion en 2019. Ce spin-off prend place entre les tomes 5 et 6 de la série principale[4] et devrait comporter au moins trois tomes[5].
+À la suite de la parution du sixième tome de la série Rebecca Kean, un spin-off centré sur le personnage de Léonora Kean, la fille de Rebecca Kean, a été publié aux éditions Pygmalion en 2019. Ce spin-off prend place entre les tomes 5 et 6 de la série principale et devrait comporter au moins trois tomes.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cassandra_O%27Donnell</t>
+          <t>Cassandra_O'Donnell</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,125 +562,524 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Univers Rebecca Kean
-Série Rebecca Kean
-Traquée, J'ai lu, coll. « Darklight », 2011
+          <t>Univers Rebecca Kean</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Rebecca Kean</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Traquée, J'ai lu, coll. « Darklight », 2011
 Pacte de sang, J'ai lu, coll. « Darklight », 2011
 Potion macabre, J'ai lu, coll. « Darklight », 2012
 Ancestral, J'ai lu, coll. « Darklight », 2013
 L'Armée des âmes, J'ai lu, coll. « Darklight », 2014
 Origines, J'ai lu, coll. « Darklight », 2017
-Amberath, J'ai lu, coll. « Darklight », 2021
-Série Leonora Kean
-Chasseuse d'âmes, Pygmalion, 2019, 399 p.  (ISBN 978-2-7564-2200-8)
-Série Les Sœurs Charbrey
-Sans orgueil ni préjugé, J'ai lu, 2013
-Un mari récalcitrant, J'ai lu, 2015
-Série Malenfer
-Il s'agit d'une saga jeunesse (pour les 8-10 ans), écrite à partir des idées des élèves de CM1 et de CM2 de l'école primaire d'Hallennes-lez-Haubourdin lors des Halliennales 2013. 
+Amberath, J'ai lu, coll. « Darklight », 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cassandra_O'Donnell</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassandra_O%27Donnell</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Univers Rebecca Kean</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Leonora Kean</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chasseuse d'âmes, Pygmalion, 2019, 399 p.  (ISBN 978-2-7564-2200-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cassandra_O'Donnell</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassandra_O%27Donnell</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Les Sœurs Charbrey</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sans orgueil ni préjugé, J'ai lu, 2013
+Un mari récalcitrant, J'ai lu, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cassandra_O'Donnell</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassandra_O%27Donnell</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Malenfer</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une saga jeunesse (pour les 8-10 ans), écrite à partir des idées des élèves de CM1 et de CM2 de l'école primaire d'Hallennes-lez-Haubourdin lors des Halliennales 2013. 
 Cette saga est composée de deux cycles.
-Cycle Terre des hommes
-La Forêt des ténèbres, Flammarion, 2014
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cassandra_O'Donnell</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassandra_O%27Donnell</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Malenfer</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cycle Terre des hommes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Forêt des ténèbres, Flammarion, 2014
 La Source magique, Flammarion, 2015
-Les Héritiers, Flammarion, 2015
-Cycle Terre de magie
-Les Sorcières des marais, Flammarion, 2017
+Les Héritiers, Flammarion, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cassandra_O'Donnell</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassandra_O%27Donnell</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Malenfer</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cycle Terre de magie</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Sorcières des marais, Flammarion, 2017
 Terres de glace, Flammarion, 2018
 Arachnia, Flammarion, 2019
 La Cité noire, Flammarion, 2021
-Le Troisième Roi, Flammarion, 2022
-Série Le Monde secret de Sombreterre
-Il s'agit d'une seconde saga jeunesse (pour les 10-11 ans).
+Le Troisième Roi, Flammarion, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cassandra_O'Donnell</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassandra_O%27Donnell</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Le Monde secret de Sombreterre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Il s'agit d'une seconde saga jeunesse (pour les 10-11 ans).
 Le Clan perdu, Flammarion, 2016
 Les Gardiens, Flammarion, 2016
 Les Âmes perdues, Flammarion, 2017
-Sombreterre, Flammarion, 2023Intégrale des trois tomes remaniés par l'autrice
-Série La Légende des quatre
-Il s'agit d'une troisième saga jeunesse (pour les 10-13 ans).
+Sombreterre, Flammarion, 2023Intégrale des trois tomes remaniés par l'autrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cassandra_O'Donnell</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassandra_O%27Donnell</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série La Légende des quatre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Il s'agit d'une troisième saga jeunesse (pour les 10-13 ans).
 Le Clan des loups, Flammarion, 2018
 Le Clan des tigres, Flammarion, 2018
 Le Clan des serpents, Flammarion, 2019
-Le Clan des aigles, Flammarion, 2020
-Série Le Collège maléfique
-Il s'agit d'une quatrième saga jeunesse (pour les 10-13 ans).
+Le Clan des aigles, Flammarion, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cassandra_O'Donnell</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassandra_O%27Donnell</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Série Le Collège maléfique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Il s'agit d'une quatrième saga jeunesse (pour les 10-13 ans).
 Le Marche-rêves, Flammarion, 2020
 Les Fils d'Asmodeus, Flammarion, 2021
 La Cible, Flammarion, 2022
-La Rébellion, Flammarion, 2023
-Série Les Jumeaux Crochemort
-La Malédiction, Flammarion Jeunesse, 2023
-Série Dead Garden
-L'héritière, Flammarion, 2024
+La Rébellion, Flammarion, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cassandra_O'Donnell</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassandra_O%27Donnell</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Série Les Jumeaux Crochemort</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>La Malédiction, Flammarion Jeunesse, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cassandra_O'Donnell</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassandra_O%27Donnell</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Série Dead Garden</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>L'héritière, Flammarion, 2024
 ce texte est une reprise mot pour mot de :
-Chasseuse d'âmes, Pygmalion, 2019
-Romans indépendants
-Les Aventures improbables de Julie Dumont, Pygmalion, 2016
+Chasseuse d'âmes, Pygmalion, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cassandra_O'Donnell</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassandra_O%27Donnell</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Les Aventures improbables de Julie Dumont, Pygmalion, 2016
 La Nouvelle, Flammarion, 2019
 Le Garçon qui ne voulait pas parler, Flammarion, 2021</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cassandra_O%27Donnell</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cassandra_O%27Donnell</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cassandra_O'Donnell</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassandra_O%27Donnell</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Autres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant la crise du Covid-19 en 2020, elle a participé à un groupe d’auteurs et d’autrices (Carina Rozenfeld, Jean-Luc Marcastel, Silène Edgar, Thomas Andrew, Sebastian Bernadotte, Anne-Marie Desplat-Duc, Evelyne Brisou-Pellen, Laurence Colin, Katia Lanero Zamora, Camille Salomon, Anna Combelle, Stéphane Tamaillon, Solène Chartier, Carole Jamin) qui ont mis en ligne des histoires libres de droits sur le site Kilitoo[6], proposant ainsi aux enfants de 2 à 15 ans un vaste choix de lectures basées sur le fantastique, la fantasy et l’imaginaire.
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la crise du Covid-19 en 2020, elle a participé à un groupe d’auteurs et d’autrices (Carina Rozenfeld, Jean-Luc Marcastel, Silène Edgar, Thomas Andrew, Sebastian Bernadotte, Anne-Marie Desplat-Duc, Evelyne Brisou-Pellen, Laurence Colin, Katia Lanero Zamora, Camille Salomon, Anna Combelle, Stéphane Tamaillon, Solène Chartier, Carole Jamin) qui ont mis en ligne des histoires libres de droits sur le site Kilitoo, proposant ainsi aux enfants de 2 à 15 ans un vaste choix de lectures basées sur le fantastique, la fantasy et l’imaginaire.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cassandra_O%27Donnell</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cassandra_O%27Donnell</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cassandra_O'Donnell</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassandra_O%27Donnell</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2013 : prix Merlin pour Potion macabre[7] (tome 3 de la saga Rebecca Kean)
-2013 : prix Plume de l'Imaginaire des lecteurs de Plume Libre pour Traquée[8] (tome 1 de la saga Rebecca Kean)
-2015 : prix Imaginales des écoliers pour Malenfer : la forêt des ténèbres[9] (tome 1 de la saga Malenfer)
-2019 : Grand Prix des jeunes lecteurs pour Le Clan des loups (tome 1 de la saga La légende des quatre)[10]</t>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2013 : prix Merlin pour Potion macabre (tome 3 de la saga Rebecca Kean)
+2013 : prix Plume de l'Imaginaire des lecteurs de Plume Libre pour Traquée (tome 1 de la saga Rebecca Kean)
+2015 : prix Imaginales des écoliers pour Malenfer : la forêt des ténèbres (tome 1 de la saga Malenfer)
+2019 : Grand Prix des jeunes lecteurs pour Le Clan des loups (tome 1 de la saga La légende des quatre)</t>
         </is>
       </c>
     </row>
